--- a/static/data/xlsx/City Level Automation.xlsx
+++ b/static/data/xlsx/City Level Automation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonghkim/dev_jhk/Research/Job_Inequality/job-automation-index-web/static/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiyong Park\Dropbox\Research\Skill Network\Data\Job Automation Index\Dec 7, 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DEFAF6-4793-764E-A701-6DEA48438784}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14380" windowHeight="10580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="4" r:id="rId1"/>
@@ -32,10 +31,10 @@
     <t>Operation Monitoring</t>
   </si>
   <si>
-    <t>Equipment Operation</t>
+    <t xml:space="preserve">Information Processing </t>
   </si>
   <si>
-    <t>System Analysis</t>
+    <t>Equipment Operation</t>
   </si>
   <si>
     <t>Managerial Task</t>
@@ -1382,19 +1381,18 @@
     <t>Metropolitan Areas</t>
   </si>
   <si>
-    <t>Information Processing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Systems Thinking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1402,15 +1400,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1498,11 +1489,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - 강조색1" xfId="1" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="2" builtinId="34"/>
-    <cellStyle name="20% - 강조색4" xfId="3" builtinId="42"/>
-    <cellStyle name="20% - 강조색6" xfId="4" builtinId="50"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1779,31 +1770,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q369"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1844,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>451</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -1856,13 +1847,13 @@
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>17</v>
@@ -21269,37 +21260,36 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q369"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -21340,7 +21330,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>451</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -21352,13 +21342,13 @@
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>17</v>
@@ -40768,37 +40758,36 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -40839,7 +40828,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>451</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -40851,13 +40840,13 @@
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>17</v>
@@ -60264,7 +60253,6 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>